--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611F175-592E-47C2-BA23-21077D40D944}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E71BB6-D6DF-4FC1-955D-73E3BAE2AB4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E71BB6-D6DF-4FC1-955D-73E3BAE2AB4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEAA8BC-B391-41E3-8D32-B971C343B7E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -538,16 +538,16 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -675,6 +675,18 @@
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.9_Student_Q_Sheet_Right_Grid.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEAA8BC-B391-41E3-8D32-B971C343B7E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F6945-6D29-4869-93D5-EB5A74DF0974}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,35 +151,44 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,176 +527,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>